--- a/src/attributions/attributions_ig_traj_194.xlsx
+++ b/src/attributions/attributions_ig_traj_194.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1281763011704195</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002732304362633061</v>
+        <v>-0.09743256086901915</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2622399841521429</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02710970481210931</v>
+        <v>0.00303967780147252</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1402694008591783</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002684612733430717</v>
+        <v>-0.0157858522608739</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2500957338607838</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.007567562106249425</v>
+        <v>0.002467049924387657</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04470165007509548</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.00475617333014007</v>
+        <v>-0.1032613445660863</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.02328870688007144</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02953151021883785</v>
+        <v>-0.04642507234038794</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1085,76 +1085,76 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03727856943564983</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.02829141033805683</v>
+        <v>-0.05884914754576637</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.008743753015760445</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02536562896600644</v>
+        <v>0.002596583407561699</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03358759126674316</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.01449471975600269</v>
+        <v>-0.04332689688553018</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.03201138138282502</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04046524956480468</v>
+        <v>0.07100016630325545</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05633629723059382</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.009439513865209727</v>
+        <v>-0.1663206817060559</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.09800526917072176</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.09342345531598749</v>
+        <v>0.0003144551746630985</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.05913440620852383</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.004983528894819888</v>
+        <v>-0.02341166372543108</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1037817066555361</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01711132933569541</v>
+        <v>0.03475721051285342</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02461123335327913</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002568472985864219</v>
+        <v>0.03593428771602011</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.0417328291051336</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02180676217269409</v>
+        <v>-0.09108884403239019</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04820291612809998</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01271109233687875</v>
+        <v>-0.05189477069328403</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02464001639811764</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.03345356185955262</v>
+        <v>-0.02992743296277599</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01451085771377686</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0005625178415872617</v>
+        <v>0.03395303151392331</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04222034789380898</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0238768007332624</v>
+        <v>0.01981383323074086</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.002751713244418796</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0144083444248038</v>
+        <v>-0.01585140079057015</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.0266578807857839</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02753087752819489</v>
+        <v>0.04226796836385542</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01096965206946255</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.007230031111667575</v>
+        <v>0.04930545569512913</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04394995226766105</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02383038090908754</v>
+        <v>0.01160994819653272</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1325,52 +1325,52 @@
         <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0163329625633976</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03721160064950219</v>
+        <v>0.03230739597374906</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01908407623220925</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02888973584082065</v>
+        <v>0.04476623474884861</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01966900654090845</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02262693854878039</v>
+        <v>-0.02352762696697234</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03397899713890748</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02758157376728289</v>
+        <v>-0.02038357453964971</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0008850361359923912</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.006600911490531499</v>
+        <v>-0.05521342815995583</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01748659847869833</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.009872053333436204</v>
+        <v>-0.03069589261656241</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.04900762946200756</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.003625374714124645</v>
+        <v>0.04440782764334671</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.0778287514814467</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0006372667108673307</v>
+        <v>-0.02568372809262882</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0140691075676733</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04625562400305799</v>
+        <v>0.05103484235418234</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03681046101146412</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003616738944088582</v>
+        <v>0.03196449392776059</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01976153599514853</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.006384035202860435</v>
+        <v>0.04619994784946117</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03583138226814911</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02966456889597262</v>
+        <v>0.0215542075157635</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,79 +1490,79 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.006043410084255752</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.02353704751566353</v>
+        <v>0.008348946584245088</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.009127320605065678</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.008336403370836626</v>
+        <v>-0.005088268726051238</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05739463861126218</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.01017738023684029</v>
+        <v>-0.004157056812444756</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.02284002279882993</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01365805358264099</v>
+        <v>0.01101548204690669</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06639805371870203</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02250409235007476</v>
+        <v>-0.03916468553119062</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02405378880385655</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
